--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.280547506332603</v>
+        <v>0.28020599571202126</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30180151682812623</v>
+        <v>0.30153527120161849</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0053308971002580504</v>
+        <v>-0.0053054427701790538</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00012295790968545013</v>
+        <v>0.00011983417635948429</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0012786294866140239</v>
+        <v>-0.0012382981285977287</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00022827084331193434</v>
+        <v>0.00022940269527075259</v>
       </c>
       <c r="H3" s="0">
-        <v>-9.3131982150652622e-05</v>
+        <v>-9.233597345637557e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0005064901349191935</v>
+        <v>-0.00050336257291926578</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-6.1496673545546887e-05</v>
+        <v>-6.1494927687477663e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29502036546289323</v>
+        <v>0.29490426520815438</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0019272840584442514</v>
+        <v>-0.0022990892592774392</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00053380624578458881</v>
+        <v>0.00052838739191416937</v>
       </c>
       <c r="F4" s="0">
-        <v>7.5054585344529876e-05</v>
+        <v>7.4856719760472539e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00015294045181568023</v>
+        <v>0.00015280941641758331</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0028368331945344038</v>
+        <v>-0.0028302009190532551</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00051788974615072584</v>
+        <v>0.00051524256316432492</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00028449271868213888</v>
+        <v>0.00028448530148811324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29768797815343151</v>
+        <v>0.29815679492474889</v>
       </c>
       <c r="C5" s="0">
-        <v>0.010286380332059652</v>
+        <v>0.010802406384145464</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.007312813361063898</v>
+        <v>-0.0073295001684724522</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00027968272001826448</v>
+        <v>0.00028864675626416483</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0011768379542007401</v>
+        <v>0.0011639600146210885</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0015959795536423195</v>
+        <v>-0.0015942340198711951</v>
       </c>
       <c r="H5" s="0">
-        <v>2.391453434957361e-05</v>
+        <v>2.3392597581988896e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00068579980772103509</v>
+        <v>-0.00068558819449970052</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>5.7682423593607979e-05</v>
+        <v>5.7677842711600924e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.23849515090269194</v>
+        <v>0.23812082277261054</v>
       </c>
       <c r="C6" s="0">
-        <v>0.024732894375560494</v>
+        <v>0.024633384853765677</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0003169240392770527</v>
+        <v>-0.0003166319476319479</v>
       </c>
       <c r="F6" s="0">
-        <v>2.072820182954285e-05</v>
+        <v>2.1521815818035081e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-9.3049921298179805e-05</v>
+        <v>-9.4031467239370317e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0023938681728314622</v>
+        <v>-0.0024086954913735653</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.0180015191485481e-05</v>
+        <v>1.01858813182365e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.24700319237013674</v>
+        <v>0.24666497396253714</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0028727560244095215</v>
+        <v>-0.0029127972896584313</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0014393094161532303</v>
+        <v>-0.0014236081213807384</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0075273328679154048</v>
+        <v>-0.0075300135743216236</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0012757050803861205</v>
+        <v>0.0012777311053934048</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.000320012363509046</v>
+        <v>0.00031952016166956912</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00066942396349481403</v>
+        <v>0.00066942455548343882</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.2130046081333507</v>
+        <v>0.21396658523343359</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.059426396439306223</v>
+        <v>-0.059034366958332481</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-4.4878465185546075e-05</v>
+        <v>-4.3426523151359026e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00023017644521834988</v>
+        <v>-0.00022989267257996694</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>6.084624530833054e-05</v>
+        <v>6.0803201426946913e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00090845044179594552</v>
+        <v>0.00091943657587568951</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0011855680073920571</v>
+        <v>0.0011855328643549934</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.23414652270434788</v>
+        <v>0.23504756479194019</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0062718857778101969</v>
+        <v>0.0063085887446446961</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0031648541974003182</v>
+        <v>-0.0031762827858649286</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.004258548216082997</v>
+        <v>-0.004269166799258723</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0022712785508304354</v>
+        <v>0.002259503082378708</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0001934103885410509</v>
+        <v>-0.00019321350418070399</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00010931882810308789</v>
+        <v>0.00011021588056233323</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>5.8875788712858812e-05</v>
+        <v>5.8875717401679628e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.30427134957698504</v>
+        <v>0.30277773791412171</v>
       </c>
       <c r="C10" s="0">
-        <v>0.099950660275370265</v>
+        <v>0.099865150181660228</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00086142370792805759</v>
+        <v>-0.00085791189814991993</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00015117121293550876</v>
+        <v>-0.00015095194325885408</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-1.3699760167527606e-05</v>
+        <v>-1.3687015958642861e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.00082827714866074071</v>
+        <v>0.00082783854847641187</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022112217388580643</v>
+        <v>-0.0022097787235773329</v>
       </c>
       <c r="K10" s="0">
-        <v>-2.6390309721513461e-05</v>
+        <v>-2.6371346599218803e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.35952849274106657</v>
+        <v>0.35843433538826414</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.033790833590040419</v>
+        <v>-0.033726625579294907</v>
       </c>
       <c r="E11" s="0">
-        <v>0.003195983889473653</v>
+        <v>0.0031890477873551537</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0059098372457959732</v>
+        <v>0.005892803768770394</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0034539838244458786</v>
+        <v>0.0034635642708572851</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0010040338438789171</v>
+        <v>0.0010047848573160613</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0037431641206325059</v>
+        <v>0.0037498874306605636</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0013848700226823385</v>
+        <v>0.0013848745584090216</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.24032812944156748</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.070040654156468957</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.0024257726423090385</v>
+      </c>
+      <c r="F12" s="0">
+        <v>4.0831598079143267e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>2.7804604127952321e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0028013019438133781</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0.00017432110062848283</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -256,7 +397,7 @@
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.64453125" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28020599571202126</v>
+        <v>0.27976966730933328</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30153527120161849</v>
+        <v>0.30122533752646879</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0053054427701790538</v>
+        <v>-0.0053734204840460128</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00011983417635948429</v>
+        <v>0.00012053349763309827</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0012382981285977287</v>
+        <v>-0.0012681972619057956</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00022940269527075259</v>
+        <v>0.00023227895057393569</v>
       </c>
       <c r="H3" s="0">
-        <v>-9.233597345637557e-05</v>
+        <v>-9.3115336030512706e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00050336257291926578</v>
+        <v>-0.0005036961334916859</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-6.1494927687477663e-05</v>
+        <v>-6.1497238355301409e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29490426520815438</v>
+        <v>0.29610158666898212</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0022990892592774392</v>
+        <v>-0.00195990391179364</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00052838739191416937</v>
+        <v>0.00052839557032018428</v>
       </c>
       <c r="F4" s="0">
-        <v>7.4856719760472539e-05</v>
+        <v>7.2693352365523644e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00015280941641758331</v>
+        <v>0.00015092088984317977</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0028302009190532551</v>
+        <v>-0.0028147482694193858</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00051524256316432492</v>
+        <v>0.00051235328374393862</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00028448530148811324</v>
+        <v>0.00028445122924147803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29815679492474889</v>
+        <v>0.29823739982279573</v>
       </c>
       <c r="C5" s="0">
-        <v>0.010802406384145464</v>
+        <v>0.010150814448644217</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0073295001684724522</v>
+        <v>-0.0073175116997337393</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00028864675626416483</v>
+        <v>0.00027905550812530903</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0011639600146210885</v>
+        <v>0.001117945302035653</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0015942340198711951</v>
+        <v>-0.0015962025504456683</v>
       </c>
       <c r="H5" s="0">
-        <v>2.3392597581988896e-05</v>
+        <v>2.3505538640796862e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00068558819449970052</v>
+        <v>-0.00068534151602970498</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>5.7677842711600924e-05</v>
+        <v>5.7680295551310046e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.23812082277261054</v>
+        <v>0.23794504492361379</v>
       </c>
       <c r="C6" s="0">
-        <v>0.024633384853765677</v>
+        <v>0.025138268890286246</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0003166319476319479</v>
+        <v>-0.00031680690196446182</v>
       </c>
       <c r="F6" s="0">
-        <v>2.1521815818035081e-05</v>
+        <v>2.2653808447389144e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-9.4031467239370317e-05</v>
+        <v>-9.4955201329026043e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0024086954913735653</v>
+        <v>-0.0024164282331007149</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.01858813182365e-05</v>
+        <v>1.0188692092738538e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.24666497396253714</v>
+        <v>0.24645447927125438</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0029127972896584313</v>
+        <v>-0.0029203457236681514</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0014236081213807384</v>
+        <v>-0.0013968814862059702</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0075300135743216236</v>
+        <v>-0.0074883268947397406</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0012777311053934048</v>
+        <v>0.0012823317468439045</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00031952016166956912</v>
+        <v>0.00031856281114900283</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00066942455548343882</v>
+        <v>0.0006694220489243119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.21396658523343359</v>
+        <v>0.21333710515221066</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.059034366958332481</v>
+        <v>-0.059740407070367998</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-4.3426523151359026e-05</v>
+        <v>-4.343926998127093e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00022989267257996694</v>
+        <v>-0.00022989893791781451</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>6.0803201426946913e-05</v>
+        <v>6.0894661455673353e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00091943657587568951</v>
+        <v>0.00093817689779269076</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0011855328643549934</v>
+        <v>0.0011855516560319024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.23504756479194019</v>
+        <v>0.23430783937929625</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0063085887446446961</v>
+        <v>0.0062148729035863479</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0031762827858649286</v>
+        <v>-0.0031881956335100886</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.004269166799258723</v>
+        <v>-0.0042786302514448843</v>
       </c>
       <c r="G9" s="0">
-        <v>0.002259503082378708</v>
+        <v>0.0022776433134563227</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00019321350418070399</v>
+        <v>-0.00019372550416576584</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00011021588056233323</v>
+        <v>0.00011056443279971231</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>5.8875717401679628e-05</v>
+        <v>5.8878027165254476e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.30277773791412171</v>
+        <v>0.30319573536264105</v>
       </c>
       <c r="C10" s="0">
-        <v>0.099865150181660228</v>
+        <v>0.10044541081726122</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00085791189814991993</v>
+        <v>-0.00086757802588448274</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00015095194325885408</v>
+        <v>-0.00015486707751350066</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-1.3687015958642861e-05</v>
+        <v>-1.3759127924151872e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.00082783854847641187</v>
+        <v>0.0008354159656928467</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022097787235773329</v>
+        <v>-0.0021621001931984517</v>
       </c>
       <c r="K10" s="0">
-        <v>-2.6371346599218803e-05</v>
+        <v>-2.6375322069227547e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.35843433538826414</v>
+        <v>0.35938293140669841</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.033726625579294907</v>
+        <v>-0.034058642455977235</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0031890477873551537</v>
+        <v>0.0031788573849395514</v>
       </c>
       <c r="F11" s="0">
-        <v>0.005892803768770394</v>
+        <v>0.0057592872723540188</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0034635642708572851</v>
+        <v>0.0034892745902888964</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0010047848573160613</v>
+        <v>0.001002662578533394</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0037498874306605636</v>
+        <v>0.0037748124592571399</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0013848745584090216</v>
+        <v>0.0013848610206462775</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.24032812944156748</v>
+        <v>0.33896226095668919</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.070040654156468957</v>
+        <v>-0.074062741463088236</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0024257726423090385</v>
+        <v>0.0026130829757521797</v>
       </c>
       <c r="F12" s="0">
-        <v>4.0831598079143267e-05</v>
+        <v>0.0034033808363185636</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>2.7804604127952321e-06</v>
+        <v>0.0020029046252041586</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0028013019438133781</v>
+        <v>0.012637306233284476</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0.00017432110062848283</v>
+        <v>7.782367348918573e-05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.28005669678146161</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.041912067530620621</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0050394112898942221</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.024794304068386147</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.00059355800134313795</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00048269471739352483</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00080369046296389077</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.0046311535162782413</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.19597322811967849</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.10310159594516416</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0014063706362254203</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00041884266237248564</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00024600057056447069</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.026977116741471546</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-2.2459583720602083e-07</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr10_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.27976966730933328</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.30122533752646879</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.29610158666898212</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.29823739982279573</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.23794504492361379</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.24645447927125438</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.21333710515221066</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.23430783937929625</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.30319573536264105</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.35938293140669841</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.33896226095668919</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.28005669678146161</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.19597322811967849</v>
+        <v>0.2369861515846331</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.10310159594516416</v>
+        <v>-0.084137647349211961</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0014063706362254203</v>
+        <v>-0.0015235346904856129</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00041884266237248564</v>
+        <v>2.5998871540546124e-05</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00024600057056447069</v>
+        <v>-0.0012187513937335834</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.026977116741471546</v>
+        <v>-0.00080741564392009272</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-2.2459583720602083e-07</v>
+        <v>-0.0060293874568611017</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.30580938029777743</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.073994830865054262</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.00026862515390815503</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.0057623102027363551</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0065746884264541458</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.00061127150712086964</v>
       </c>
     </row>
   </sheetData>
